--- a/resource/backup/apus-ofet-presup.xlsx
+++ b/resource/backup/apus-ofet-presup.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\personal1\Documents\GitHub\IngehisaSoft\resource\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48A9A2AB-C024-40BE-AE78-77283DF9392F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12150" windowHeight="4920" xr2:uid="{BA720F0B-2BE7-430E-AC7B-5E891A8942C9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12150" windowHeight="4920"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>APUS</t>
   </si>
@@ -90,12 +89,33 @@
   </si>
   <si>
     <t>lee cada presupuesto</t>
+  </si>
+  <si>
+    <t>referencia</t>
+  </si>
+  <si>
+    <t>el id de apus</t>
+  </si>
+  <si>
+    <t>un insert</t>
+  </si>
+  <si>
+    <t>apus</t>
+  </si>
+  <si>
+    <t>si se quiere hacer el presupuesto ingresa el id del apus</t>
+  </si>
+  <si>
+    <t>se crea con esquema</t>
+  </si>
+  <si>
+    <t>HACER UNA CABECERA SOLO DE LAS OFERTAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,11 +466,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FACA07-E5E8-4EC7-A2A7-4151A92CEBAD}">
-  <dimension ref="C2:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:M15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,6 +573,43 @@
         <v>17</v>
       </c>
     </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
